--- a/data/pca/factorExposure/factorExposure_2011-11-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.00847453356896774</v>
+        <v>0.01179951837555908</v>
       </c>
       <c r="C2">
-        <v>-0.03114525523100795</v>
+        <v>0.02038266918155861</v>
       </c>
       <c r="D2">
-        <v>0.01754081172601612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02488247865928212</v>
+      </c>
+      <c r="E2">
+        <v>0.009492701882310221</v>
+      </c>
+      <c r="F2">
+        <v>-0.03238818561040682</v>
+      </c>
+      <c r="G2">
+        <v>0.001814559230421495</v>
+      </c>
+      <c r="H2">
+        <v>-0.01755054881001358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07400831193831525</v>
+        <v>0.0883236771207742</v>
       </c>
       <c r="C4">
-        <v>-0.06507077823387736</v>
+        <v>0.02230294407470909</v>
       </c>
       <c r="D4">
-        <v>0.07018533716092001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08144894573701567</v>
+      </c>
+      <c r="E4">
+        <v>0.009811707043931649</v>
+      </c>
+      <c r="F4">
+        <v>-0.04233757540923066</v>
+      </c>
+      <c r="G4">
+        <v>-0.02311023308197882</v>
+      </c>
+      <c r="H4">
+        <v>0.03421257526798339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.108214064009904</v>
+        <v>0.1227889541507008</v>
       </c>
       <c r="C6">
-        <v>-0.06428621685078895</v>
+        <v>0.04141428053243971</v>
       </c>
       <c r="D6">
-        <v>-0.000623122166771992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02246415959992027</v>
+      </c>
+      <c r="E6">
+        <v>-0.02541196489183973</v>
+      </c>
+      <c r="F6">
+        <v>-0.0381900505580662</v>
+      </c>
+      <c r="G6">
+        <v>-0.0494398660513821</v>
+      </c>
+      <c r="H6">
+        <v>-0.1729161939459379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05583891336499396</v>
+        <v>0.06581249352329387</v>
       </c>
       <c r="C7">
-        <v>-0.04221756875519379</v>
+        <v>0.009511540477992625</v>
       </c>
       <c r="D7">
-        <v>0.02879687022389469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05706776571759587</v>
+      </c>
+      <c r="E7">
+        <v>0.02435157965021901</v>
+      </c>
+      <c r="F7">
+        <v>-0.04681179121173304</v>
+      </c>
+      <c r="G7">
+        <v>0.02595035787138852</v>
+      </c>
+      <c r="H7">
+        <v>0.01677538585828891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03892286141715244</v>
+        <v>0.04326207073731086</v>
       </c>
       <c r="C8">
-        <v>-0.01692833321372908</v>
+        <v>0.002816990401793047</v>
       </c>
       <c r="D8">
-        <v>0.0617743535841942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03032290315149983</v>
+      </c>
+      <c r="E8">
+        <v>0.00807579184501016</v>
+      </c>
+      <c r="F8">
+        <v>-0.0741076792535891</v>
+      </c>
+      <c r="G8">
+        <v>-0.08760834490373824</v>
+      </c>
+      <c r="H8">
+        <v>-0.01013302218632397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0712211218995239</v>
+        <v>0.08106205205636718</v>
       </c>
       <c r="C9">
-        <v>-0.05222565557256643</v>
+        <v>0.01296478256229904</v>
       </c>
       <c r="D9">
-        <v>0.06513950494520966</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.07124602345812264</v>
+      </c>
+      <c r="E9">
+        <v>0.02257567639182362</v>
+      </c>
+      <c r="F9">
+        <v>-0.0378798759586786</v>
+      </c>
+      <c r="G9">
+        <v>-0.03446124138579115</v>
+      </c>
+      <c r="H9">
+        <v>0.03638208023484703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02372854653958821</v>
+        <v>0.05025692469756051</v>
       </c>
       <c r="C10">
-        <v>-0.01681561132203029</v>
+        <v>0.1084313303940163</v>
       </c>
       <c r="D10">
-        <v>-0.1728819469943578</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1591313248570365</v>
+      </c>
+      <c r="E10">
+        <v>0.02961059490708466</v>
+      </c>
+      <c r="F10">
+        <v>-0.05845476117603102</v>
+      </c>
+      <c r="G10">
+        <v>0.03207646540547762</v>
+      </c>
+      <c r="H10">
+        <v>-0.0402621893913019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0668587446015218</v>
+        <v>0.07307542963634792</v>
       </c>
       <c r="C11">
-        <v>-0.0455765757158426</v>
+        <v>0.004468351736927162</v>
       </c>
       <c r="D11">
-        <v>0.05725530255239059</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06560843825102912</v>
+      </c>
+      <c r="E11">
+        <v>0.003804374875044229</v>
+      </c>
+      <c r="F11">
+        <v>-0.03610230979270537</v>
+      </c>
+      <c r="G11">
+        <v>-0.0446450178337243</v>
+      </c>
+      <c r="H11">
+        <v>0.06212604210952508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05901215672443883</v>
+        <v>0.06756279026540012</v>
       </c>
       <c r="C12">
-        <v>-0.05598323254739306</v>
+        <v>0.01733535845720725</v>
       </c>
       <c r="D12">
-        <v>0.04511430811760734</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05864565167444411</v>
+      </c>
+      <c r="E12">
+        <v>0.0109270706287477</v>
+      </c>
+      <c r="F12">
+        <v>-0.02436245172112187</v>
+      </c>
+      <c r="G12">
+        <v>-0.01987954871127704</v>
+      </c>
+      <c r="H12">
+        <v>0.02818316272331588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06820091140278485</v>
+        <v>0.06992222295723219</v>
       </c>
       <c r="C13">
-        <v>-0.05250843697557125</v>
+        <v>0.01743901548789524</v>
       </c>
       <c r="D13">
-        <v>0.03419947086898249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04697702889357328</v>
+      </c>
+      <c r="E13">
+        <v>0.008858410461479223</v>
+      </c>
+      <c r="F13">
+        <v>-0.01995880719547805</v>
+      </c>
+      <c r="G13">
+        <v>-0.02075041927735747</v>
+      </c>
+      <c r="H13">
+        <v>0.04769104123526153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02919559405039594</v>
+        <v>0.03937633691281053</v>
       </c>
       <c r="C14">
-        <v>-0.03166022257608966</v>
+        <v>0.02412989974310104</v>
       </c>
       <c r="D14">
-        <v>-0.006118286629568434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0208385518526282</v>
+      </c>
+      <c r="E14">
+        <v>0.02485771398816819</v>
+      </c>
+      <c r="F14">
+        <v>-0.01734262639604648</v>
+      </c>
+      <c r="G14">
+        <v>-0.01668632825049393</v>
+      </c>
+      <c r="H14">
+        <v>0.06903506227367716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04018122835871486</v>
+        <v>0.03886211349079595</v>
       </c>
       <c r="C15">
-        <v>-0.01460989475155647</v>
+        <v>0.001122268860729314</v>
       </c>
       <c r="D15">
-        <v>0.02230907465296268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01284903449050818</v>
+      </c>
+      <c r="E15">
+        <v>0.0309701221627718</v>
+      </c>
+      <c r="F15">
+        <v>-0.004492653732056133</v>
+      </c>
+      <c r="G15">
+        <v>-0.03219488215480831</v>
+      </c>
+      <c r="H15">
+        <v>0.03143535256252546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05686627414468221</v>
+        <v>0.06949065931803725</v>
       </c>
       <c r="C16">
-        <v>-0.0423913738371131</v>
+        <v>0.007122191504961276</v>
       </c>
       <c r="D16">
-        <v>0.05491484688565576</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06653916363144567</v>
+      </c>
+      <c r="E16">
+        <v>0.006371839058147886</v>
+      </c>
+      <c r="F16">
+        <v>-0.0300282322889009</v>
+      </c>
+      <c r="G16">
+        <v>-0.01901029926679864</v>
+      </c>
+      <c r="H16">
+        <v>0.04699364678055701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06180361450146695</v>
+        <v>0.06269380025569468</v>
       </c>
       <c r="C20">
-        <v>-0.03266055427769345</v>
+        <v>-1.910960051908461e-05</v>
       </c>
       <c r="D20">
-        <v>0.04512628583694781</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04307443647118829</v>
+      </c>
+      <c r="E20">
+        <v>0.005948675871550011</v>
+      </c>
+      <c r="F20">
+        <v>-0.02740523996179154</v>
+      </c>
+      <c r="G20">
+        <v>-0.02066710843134459</v>
+      </c>
+      <c r="H20">
+        <v>0.04276031665235244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03372830233953667</v>
+        <v>0.02822976642721219</v>
       </c>
       <c r="C21">
-        <v>-0.01000325872549262</v>
+        <v>-0.008709885479850228</v>
       </c>
       <c r="D21">
-        <v>0.009858763612316026</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01928139877433903</v>
+      </c>
+      <c r="E21">
+        <v>0.04103750323992843</v>
+      </c>
+      <c r="F21">
+        <v>0.01462355022665887</v>
+      </c>
+      <c r="G21">
+        <v>-0.005902147805772061</v>
+      </c>
+      <c r="H21">
+        <v>-0.03783542553167329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.08187887625523935</v>
+        <v>0.07389786375624155</v>
       </c>
       <c r="C22">
-        <v>-0.08303427150123791</v>
+        <v>0.01732359662046953</v>
       </c>
       <c r="D22">
-        <v>0.1266590711037987</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1053711834625623</v>
+      </c>
+      <c r="E22">
+        <v>0.6036379693564347</v>
+      </c>
+      <c r="F22">
+        <v>0.03788053410425178</v>
+      </c>
+      <c r="G22">
+        <v>0.1860226970623691</v>
+      </c>
+      <c r="H22">
+        <v>-0.1419127576242141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08339805810628206</v>
+        <v>0.07515209438086835</v>
       </c>
       <c r="C23">
-        <v>-0.08204780081725761</v>
+        <v>0.01590452314112964</v>
       </c>
       <c r="D23">
-        <v>0.1278033357573544</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1060892843914894</v>
+      </c>
+      <c r="E23">
+        <v>0.6055066724274711</v>
+      </c>
+      <c r="F23">
+        <v>0.03728155247167318</v>
+      </c>
+      <c r="G23">
+        <v>0.1803903186494886</v>
+      </c>
+      <c r="H23">
+        <v>-0.1386784813889315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07274267575364238</v>
+        <v>0.07918441366882295</v>
       </c>
       <c r="C24">
-        <v>-0.05474522767723251</v>
+        <v>0.01182232497449129</v>
       </c>
       <c r="D24">
-        <v>0.05916901051726745</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06685600476232613</v>
+      </c>
+      <c r="E24">
+        <v>0.01325676095892666</v>
+      </c>
+      <c r="F24">
+        <v>-0.03725072550010568</v>
+      </c>
+      <c r="G24">
+        <v>-0.03893030837947899</v>
+      </c>
+      <c r="H24">
+        <v>0.03012470365354397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07165292285385577</v>
+        <v>0.07798328313837213</v>
       </c>
       <c r="C25">
-        <v>-0.05804744048286774</v>
+        <v>0.01815987093738835</v>
       </c>
       <c r="D25">
-        <v>0.05620528701218281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06092532260325</v>
+      </c>
+      <c r="E25">
+        <v>0.01848100460856401</v>
+      </c>
+      <c r="F25">
+        <v>-0.03404282510072502</v>
+      </c>
+      <c r="G25">
+        <v>-0.04309427307244413</v>
+      </c>
+      <c r="H25">
+        <v>0.03945169660662905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04411858919536379</v>
+        <v>0.04543394080895895</v>
       </c>
       <c r="C26">
-        <v>-0.01750978133516904</v>
+        <v>0.0001569576703437582</v>
       </c>
       <c r="D26">
-        <v>0.01066683683644351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01975398908262754</v>
+      </c>
+      <c r="E26">
+        <v>0.04434193499472566</v>
+      </c>
+      <c r="F26">
+        <v>-0.02851548269990166</v>
+      </c>
+      <c r="G26">
+        <v>-0.02823958987200188</v>
+      </c>
+      <c r="H26">
+        <v>0.0453356662469886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0389598649788799</v>
+        <v>0.07160912452352147</v>
       </c>
       <c r="C28">
-        <v>-0.04992412597444388</v>
+        <v>0.1838173070942258</v>
       </c>
       <c r="D28">
-        <v>-0.3139817714416713</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2614334357564697</v>
+      </c>
+      <c r="E28">
+        <v>0.0332528131776731</v>
+      </c>
+      <c r="F28">
+        <v>-0.05144386355967919</v>
+      </c>
+      <c r="G28">
+        <v>-0.02425548751167633</v>
+      </c>
+      <c r="H28">
+        <v>-0.06279644490475697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04334902463793984</v>
+        <v>0.04866983858565989</v>
       </c>
       <c r="C29">
-        <v>-0.04364268641484028</v>
+        <v>0.02858942206857709</v>
       </c>
       <c r="D29">
-        <v>-0.003586340915418508</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02241085996924289</v>
+      </c>
+      <c r="E29">
+        <v>0.05070414294092226</v>
+      </c>
+      <c r="F29">
+        <v>-0.02089947566224382</v>
+      </c>
+      <c r="G29">
+        <v>-0.00495614459881985</v>
+      </c>
+      <c r="H29">
+        <v>0.08961315850580738</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1295948644998285</v>
+        <v>0.1274181872311267</v>
       </c>
       <c r="C30">
-        <v>-0.1079267281635483</v>
+        <v>0.0373468609667918</v>
       </c>
       <c r="D30">
-        <v>0.1022763698133592</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09712309715800457</v>
+      </c>
+      <c r="E30">
+        <v>0.05337171229244643</v>
+      </c>
+      <c r="F30">
+        <v>-0.01872163773222858</v>
+      </c>
+      <c r="G30">
+        <v>-0.07768272002609096</v>
+      </c>
+      <c r="H30">
+        <v>-0.05313466600493165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04790010013080358</v>
+        <v>0.04887434247807972</v>
       </c>
       <c r="C31">
-        <v>-0.02512982211646302</v>
+        <v>-0.0009275465041425758</v>
       </c>
       <c r="D31">
-        <v>0.01945328382388882</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03670562599711024</v>
+      </c>
+      <c r="E31">
+        <v>0.02286107604394868</v>
+      </c>
+      <c r="F31">
+        <v>-0.0104226266224245</v>
+      </c>
+      <c r="G31">
+        <v>0.005588234887309209</v>
+      </c>
+      <c r="H31">
+        <v>0.06843294779189425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03540341724164295</v>
+        <v>0.03876952978396886</v>
       </c>
       <c r="C32">
-        <v>-0.02634464475830046</v>
+        <v>0.01891826395135286</v>
       </c>
       <c r="D32">
-        <v>0.02968595898268018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0141440560519224</v>
+      </c>
+      <c r="E32">
+        <v>0.04442284517235992</v>
+      </c>
+      <c r="F32">
+        <v>0.0003546598715067206</v>
+      </c>
+      <c r="G32">
+        <v>-0.0458100780332519</v>
+      </c>
+      <c r="H32">
+        <v>0.006680879886267461</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08382750101697166</v>
+        <v>0.09355481954971709</v>
       </c>
       <c r="C33">
-        <v>-0.04930766646144629</v>
+        <v>0.009833669898370171</v>
       </c>
       <c r="D33">
-        <v>0.04746730696459917</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05652488093919549</v>
+      </c>
+      <c r="E33">
+        <v>0.01275460451102763</v>
+      </c>
+      <c r="F33">
+        <v>-0.002341890953120348</v>
+      </c>
+      <c r="G33">
+        <v>-0.006389536363071325</v>
+      </c>
+      <c r="H33">
+        <v>0.0604304522191958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05802888774440212</v>
+        <v>0.06719602772142141</v>
       </c>
       <c r="C34">
-        <v>-0.03049184649150304</v>
+        <v>0.0005557470820710512</v>
       </c>
       <c r="D34">
-        <v>0.05233682017669055</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04896267914317321</v>
+      </c>
+      <c r="E34">
+        <v>0.01397186949179948</v>
+      </c>
+      <c r="F34">
+        <v>-0.02069159615079071</v>
+      </c>
+      <c r="G34">
+        <v>-0.02576651369734492</v>
+      </c>
+      <c r="H34">
+        <v>0.04889122923631956</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03600820210844365</v>
+        <v>0.03775773399748963</v>
       </c>
       <c r="C35">
-        <v>-0.01767323329677285</v>
+        <v>0.003096915587196197</v>
       </c>
       <c r="D35">
-        <v>0.01842182542058097</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02005676258339833</v>
+      </c>
+      <c r="E35">
+        <v>0.02108802981697996</v>
+      </c>
+      <c r="F35">
+        <v>0.01467044439742708</v>
+      </c>
+      <c r="G35">
+        <v>0.003738580625255419</v>
+      </c>
+      <c r="H35">
+        <v>0.03391101852130602</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02609134130294115</v>
+        <v>0.02786683404341367</v>
       </c>
       <c r="C36">
-        <v>-0.0216587038619495</v>
+        <v>0.00769661308327737</v>
       </c>
       <c r="D36">
-        <v>0.01898583524223672</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02186136105919797</v>
+      </c>
+      <c r="E36">
+        <v>0.03382560964786126</v>
+      </c>
+      <c r="F36">
+        <v>-0.02789530547646702</v>
+      </c>
+      <c r="G36">
+        <v>-0.013658897637745</v>
+      </c>
+      <c r="H36">
+        <v>0.04167977527056923</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.05304355342915949</v>
+        <v>0.04936476912088582</v>
       </c>
       <c r="C38">
-        <v>-0.01531889097787971</v>
+        <v>-0.007836029667023601</v>
       </c>
       <c r="D38">
-        <v>0.003760962576973848</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02248873660750151</v>
+      </c>
+      <c r="E38">
+        <v>0.04918140509353482</v>
+      </c>
+      <c r="F38">
+        <v>0.003200338129889664</v>
+      </c>
+      <c r="G38">
+        <v>-0.003095862499373396</v>
+      </c>
+      <c r="H38">
+        <v>0.02820065108580762</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08917011914902437</v>
+        <v>0.09983018240493748</v>
       </c>
       <c r="C39">
-        <v>-0.08063625682848319</v>
+        <v>0.03282243044776081</v>
       </c>
       <c r="D39">
-        <v>0.04586345991271572</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07690527226356136</v>
+      </c>
+      <c r="E39">
+        <v>0.002901537191244738</v>
+      </c>
+      <c r="F39">
+        <v>-0.003746661175528842</v>
+      </c>
+      <c r="G39">
+        <v>-0.05107104514568998</v>
+      </c>
+      <c r="H39">
+        <v>0.02138978682205603</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07817020770244636</v>
+        <v>0.05853509164806823</v>
       </c>
       <c r="C40">
-        <v>-0.0410912063415143</v>
+        <v>-0.009050801384318408</v>
       </c>
       <c r="D40">
-        <v>0.0122011737945354</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03571548393533677</v>
+      </c>
+      <c r="E40">
+        <v>0.04149962107526069</v>
+      </c>
+      <c r="F40">
+        <v>0.03767483338894942</v>
+      </c>
+      <c r="G40">
+        <v>-0.05827203320918443</v>
+      </c>
+      <c r="H40">
+        <v>-0.07798458594146911</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04514750120919649</v>
+        <v>0.04572905788183908</v>
       </c>
       <c r="C41">
-        <v>-0.02038776090969301</v>
+        <v>-0.005844161740951567</v>
       </c>
       <c r="D41">
-        <v>0.03162496748186389</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0342088717526183</v>
+      </c>
+      <c r="E41">
+        <v>0.000918169106415043</v>
+      </c>
+      <c r="F41">
+        <v>0.01383414629153968</v>
+      </c>
+      <c r="G41">
+        <v>-0.005833668620532954</v>
+      </c>
+      <c r="H41">
+        <v>0.0353936015421932</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05194335554430117</v>
+        <v>0.05912809778735403</v>
       </c>
       <c r="C43">
-        <v>-0.03180774021656045</v>
+        <v>0.009156150709637963</v>
       </c>
       <c r="D43">
-        <v>0.006756587737945528</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03441551105513721</v>
+      </c>
+      <c r="E43">
+        <v>0.01846725213053134</v>
+      </c>
+      <c r="F43">
+        <v>-0.01345397927472114</v>
+      </c>
+      <c r="G43">
+        <v>0.01829294499682025</v>
+      </c>
+      <c r="H43">
+        <v>0.05942377876650195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.095949330507808</v>
+        <v>0.09474092234321532</v>
       </c>
       <c r="C44">
-        <v>-0.03845446138915781</v>
+        <v>-0.004413077087439699</v>
       </c>
       <c r="D44">
-        <v>0.04725792419070535</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05495838371292488</v>
+      </c>
+      <c r="E44">
+        <v>0.07858336821921355</v>
+      </c>
+      <c r="F44">
+        <v>-0.08263235317393353</v>
+      </c>
+      <c r="G44">
+        <v>-0.07026009874857626</v>
+      </c>
+      <c r="H44">
+        <v>0.04913906271767375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02528194087895801</v>
+        <v>0.03792949352917314</v>
       </c>
       <c r="C46">
-        <v>-0.0239573106545366</v>
+        <v>0.01076350462734055</v>
       </c>
       <c r="D46">
-        <v>0.03046118048145141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03883909734721089</v>
+      </c>
+      <c r="E46">
+        <v>0.030416443691536</v>
+      </c>
+      <c r="F46">
+        <v>-0.01641959095303896</v>
+      </c>
+      <c r="G46">
+        <v>0.003575310183376876</v>
+      </c>
+      <c r="H46">
+        <v>0.03693815006421126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03381695321630497</v>
+        <v>0.04164815030410762</v>
       </c>
       <c r="C47">
-        <v>-0.02461939864824514</v>
+        <v>0.01567967734741143</v>
       </c>
       <c r="D47">
-        <v>-0.007309451130039343</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01420243763177492</v>
+      </c>
+      <c r="E47">
+        <v>0.04114932314533187</v>
+      </c>
+      <c r="F47">
+        <v>0.008025776107936641</v>
+      </c>
+      <c r="G47">
+        <v>0.0334004992833884</v>
+      </c>
+      <c r="H47">
+        <v>0.02099776498270692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0366802966858126</v>
+        <v>0.03986892598369513</v>
       </c>
       <c r="C48">
-        <v>-0.03095475014869309</v>
+        <v>0.0115695298585086</v>
       </c>
       <c r="D48">
-        <v>0.02749543779950256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02477520348966995</v>
+      </c>
+      <c r="E48">
+        <v>0.04010565413537519</v>
+      </c>
+      <c r="F48">
+        <v>-0.007722434264812194</v>
+      </c>
+      <c r="G48">
+        <v>-0.02236840546638674</v>
+      </c>
+      <c r="H48">
+        <v>0.02269806254298686</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1591534526492142</v>
+        <v>0.195874674562118</v>
       </c>
       <c r="C49">
-        <v>-0.05553502273107984</v>
+        <v>0.02896330045213695</v>
       </c>
       <c r="D49">
-        <v>0.006785782934822433</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.0352021200328175</v>
+      </c>
+      <c r="E49">
+        <v>-0.1799642150449493</v>
+      </c>
+      <c r="F49">
+        <v>-0.03224610711572223</v>
+      </c>
+      <c r="G49">
+        <v>0.135809521379765</v>
+      </c>
+      <c r="H49">
+        <v>-0.2406784782339116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04524585945965544</v>
+        <v>0.04822920188111322</v>
       </c>
       <c r="C50">
-        <v>-0.03133978992613735</v>
+        <v>0.006557489012620103</v>
       </c>
       <c r="D50">
-        <v>0.02803764859960775</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03925867984286546</v>
+      </c>
+      <c r="E50">
+        <v>0.02676583989798714</v>
+      </c>
+      <c r="F50">
+        <v>-0.006369115149258153</v>
+      </c>
+      <c r="G50">
+        <v>-0.001478432246929755</v>
+      </c>
+      <c r="H50">
+        <v>0.07548386113806943</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0242051695234044</v>
+        <v>0.03410165465067205</v>
       </c>
       <c r="C51">
-        <v>-0.004123315539685455</v>
+        <v>0.003184637988707236</v>
       </c>
       <c r="D51">
-        <v>-0.003563808284308361</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.002476822902017587</v>
+      </c>
+      <c r="E51">
+        <v>0.006889418282860826</v>
+      </c>
+      <c r="F51">
+        <v>-0.01149227828046399</v>
+      </c>
+      <c r="G51">
+        <v>0.02221648308040182</v>
+      </c>
+      <c r="H51">
+        <v>-0.01844369789522972</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1502820110421453</v>
+        <v>0.1601983462832717</v>
       </c>
       <c r="C53">
-        <v>-0.0867186863517616</v>
+        <v>0.0463183913548569</v>
       </c>
       <c r="D53">
-        <v>-0.01229061012444919</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03524369370513695</v>
+      </c>
+      <c r="E53">
+        <v>-0.0306264505603838</v>
+      </c>
+      <c r="F53">
+        <v>-0.0001345321634887616</v>
+      </c>
+      <c r="G53">
+        <v>0.01202605746341976</v>
+      </c>
+      <c r="H53">
+        <v>0.1971452502890301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05764383527411359</v>
+        <v>0.0600113367089861</v>
       </c>
       <c r="C54">
-        <v>-0.03476641905233511</v>
+        <v>0.01863055120901228</v>
       </c>
       <c r="D54">
-        <v>0.01686802748144537</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01822820851440729</v>
+      </c>
+      <c r="E54">
+        <v>0.0567365612653694</v>
+      </c>
+      <c r="F54">
+        <v>-0.01862131208260674</v>
+      </c>
+      <c r="G54">
+        <v>-0.05667052854868556</v>
+      </c>
+      <c r="H54">
+        <v>0.04536457657427378</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0976939253645983</v>
+        <v>0.1007222210709285</v>
       </c>
       <c r="C55">
-        <v>-0.05631184857982071</v>
+        <v>0.02188756369931659</v>
       </c>
       <c r="D55">
-        <v>0.006941660948965761</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03595723720428042</v>
+      </c>
+      <c r="E55">
+        <v>-0.002762172818911246</v>
+      </c>
+      <c r="F55">
+        <v>-0.01916952201633811</v>
+      </c>
+      <c r="G55">
+        <v>-0.01016918287942605</v>
+      </c>
+      <c r="H55">
+        <v>0.1539209600266156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1478535812186042</v>
+        <v>0.1548009765074934</v>
       </c>
       <c r="C56">
-        <v>-0.0884115694818372</v>
+        <v>0.03592060312594921</v>
       </c>
       <c r="D56">
-        <v>-0.007569032590125084</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05410551280440972</v>
+      </c>
+      <c r="E56">
+        <v>-0.0118651077723688</v>
+      </c>
+      <c r="F56">
+        <v>-0.02049685903673706</v>
+      </c>
+      <c r="G56">
+        <v>0.003651538590601624</v>
+      </c>
+      <c r="H56">
+        <v>0.2027674761540683</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1318731410875761</v>
+        <v>0.09818922681276357</v>
       </c>
       <c r="C58">
-        <v>0.0186083365471227</v>
+        <v>-0.07523683666058763</v>
       </c>
       <c r="D58">
-        <v>0.0514590376433283</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.01062471109343297</v>
+      </c>
+      <c r="E58">
+        <v>0.1240432400999339</v>
+      </c>
+      <c r="F58">
+        <v>-0.03220290838434906</v>
+      </c>
+      <c r="G58">
+        <v>0.08600509277635067</v>
+      </c>
+      <c r="H58">
+        <v>-0.1981912526251593</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1128470999470292</v>
+        <v>0.1477366341536539</v>
       </c>
       <c r="C59">
-        <v>-0.06275248916677309</v>
+        <v>0.2026822430139174</v>
       </c>
       <c r="D59">
-        <v>-0.4152782423850928</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3090149147320586</v>
+      </c>
+      <c r="E59">
+        <v>0.02592555013963191</v>
+      </c>
+      <c r="F59">
+        <v>-0.005173888017034081</v>
+      </c>
+      <c r="G59">
+        <v>-0.005270445340002271</v>
+      </c>
+      <c r="H59">
+        <v>0.01525715815207048</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2048071381932973</v>
+        <v>0.237525211957529</v>
       </c>
       <c r="C60">
-        <v>-0.1068893617864335</v>
+        <v>0.05431609842189017</v>
       </c>
       <c r="D60">
-        <v>-0.002637555759473467</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.06120927735090489</v>
+      </c>
+      <c r="E60">
+        <v>-0.1286656540200888</v>
+      </c>
+      <c r="F60">
+        <v>-0.0423383802629928</v>
+      </c>
+      <c r="G60">
+        <v>0.01986642850758556</v>
+      </c>
+      <c r="H60">
+        <v>-0.1580328619421378</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0760402259437028</v>
+        <v>0.08460466559209293</v>
       </c>
       <c r="C61">
-        <v>-0.05077012342283317</v>
+        <v>0.01741847574164234</v>
       </c>
       <c r="D61">
-        <v>0.03079746246026571</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05155381469539349</v>
+      </c>
+      <c r="E61">
+        <v>0.008880876011323719</v>
+      </c>
+      <c r="F61">
+        <v>-0.01436362287752933</v>
+      </c>
+      <c r="G61">
+        <v>-0.0298520471316453</v>
+      </c>
+      <c r="H61">
+        <v>0.06789199985894025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.129404919713928</v>
+        <v>0.1370055818903055</v>
       </c>
       <c r="C62">
-        <v>-0.05472734168169655</v>
+        <v>0.01121452886389371</v>
       </c>
       <c r="D62">
-        <v>-0.008039109961655407</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04473892679355503</v>
+      </c>
+      <c r="E62">
+        <v>-0.04024932217459424</v>
+      </c>
+      <c r="F62">
+        <v>0.02434957724124594</v>
+      </c>
+      <c r="G62">
+        <v>-0.02599817148481758</v>
+      </c>
+      <c r="H62">
+        <v>0.1990891600593968</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05016080458634126</v>
+        <v>0.04867720767570492</v>
       </c>
       <c r="C63">
-        <v>-0.0281264088327343</v>
+        <v>0.006792072955429864</v>
       </c>
       <c r="D63">
-        <v>0.02398978101057912</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02668924813529039</v>
+      </c>
+      <c r="E63">
+        <v>0.03852641419004733</v>
+      </c>
+      <c r="F63">
+        <v>-0.0001547056052147142</v>
+      </c>
+      <c r="G63">
+        <v>-0.0369276902933429</v>
+      </c>
+      <c r="H63">
+        <v>0.04044309633675236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1065350599933689</v>
+        <v>0.1117953114389733</v>
       </c>
       <c r="C64">
-        <v>-0.04700278221064923</v>
+        <v>0.01763509996574537</v>
       </c>
       <c r="D64">
-        <v>0.01477997892605157</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03089304227436506</v>
+      </c>
+      <c r="E64">
+        <v>0.04116680366500458</v>
+      </c>
+      <c r="F64">
+        <v>-0.0485415925609816</v>
+      </c>
+      <c r="G64">
+        <v>-0.0586998375121275</v>
+      </c>
+      <c r="H64">
+        <v>0.01936543771189256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1239660831012454</v>
+        <v>0.1307029765830405</v>
       </c>
       <c r="C65">
-        <v>-0.07009422278383103</v>
+        <v>0.04521103523126609</v>
       </c>
       <c r="D65">
-        <v>0.004620815473775766</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.02409159333542475</v>
+      </c>
+      <c r="E65">
+        <v>-0.002609790523202782</v>
+      </c>
+      <c r="F65">
+        <v>-0.02344352233883993</v>
+      </c>
+      <c r="G65">
+        <v>-0.07469947995394829</v>
+      </c>
+      <c r="H65">
+        <v>-0.1969514681718897</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1478788149007026</v>
+        <v>0.1515981008746299</v>
       </c>
       <c r="C66">
-        <v>-0.0942217681028642</v>
+        <v>0.01608937776940751</v>
       </c>
       <c r="D66">
-        <v>0.08972078285439301</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.11340063367528</v>
+      </c>
+      <c r="E66">
+        <v>-0.02382163703367077</v>
+      </c>
+      <c r="F66">
+        <v>-0.004072614629638381</v>
+      </c>
+      <c r="G66">
+        <v>-0.07547940002512329</v>
+      </c>
+      <c r="H66">
+        <v>0.08701619931443275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.08080108275852328</v>
+        <v>0.08758067664307916</v>
       </c>
       <c r="C67">
-        <v>-0.02311506297354417</v>
+        <v>-0.005010271364066582</v>
       </c>
       <c r="D67">
-        <v>0.01365145367977138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03552900278899381</v>
+      </c>
+      <c r="E67">
+        <v>0.01770757856219746</v>
+      </c>
+      <c r="F67">
+        <v>-0.01313969855581025</v>
+      </c>
+      <c r="G67">
+        <v>0.01228713105523731</v>
+      </c>
+      <c r="H67">
+        <v>0.0248175778116219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04571068373992555</v>
+        <v>0.06410421667885709</v>
       </c>
       <c r="C68">
-        <v>-0.03232257310944821</v>
+        <v>0.1504569228548681</v>
       </c>
       <c r="D68">
-        <v>-0.2627277769420798</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2376302739462475</v>
+      </c>
+      <c r="E68">
+        <v>0.0434229033260964</v>
+      </c>
+      <c r="F68">
+        <v>-0.009533215844156397</v>
+      </c>
+      <c r="G68">
+        <v>-0.0008795056781369313</v>
+      </c>
+      <c r="H68">
+        <v>0.01377488682107054</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05668196240835859</v>
+        <v>0.05416930620418333</v>
       </c>
       <c r="C69">
-        <v>-0.02731398444435141</v>
+        <v>0.001973206567207666</v>
       </c>
       <c r="D69">
-        <v>0.01739875535947204</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02313703354649166</v>
+      </c>
+      <c r="E69">
+        <v>0.02041606927320545</v>
+      </c>
+      <c r="F69">
+        <v>0.01348605135002572</v>
+      </c>
+      <c r="G69">
+        <v>0.001499209174276076</v>
+      </c>
+      <c r="H69">
+        <v>0.03985333537863638</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.009124509291673528</v>
+        <v>0.03219652535465024</v>
       </c>
       <c r="C70">
-        <v>0.002414536300179875</v>
+        <v>0.004178670894813539</v>
       </c>
       <c r="D70">
-        <v>-0.01174128032085989</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.006146490135694165</v>
+      </c>
+      <c r="E70">
+        <v>-0.02516406517209083</v>
+      </c>
+      <c r="F70">
+        <v>0.009649111100740631</v>
+      </c>
+      <c r="G70">
+        <v>0.02475938741972822</v>
+      </c>
+      <c r="H70">
+        <v>-0.02623659563892629</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.04226309352220287</v>
+        <v>0.06949902639950563</v>
       </c>
       <c r="C71">
-        <v>-0.03030034502815836</v>
+        <v>0.1660388440467948</v>
       </c>
       <c r="D71">
-        <v>-0.2937421405904322</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2585365261716854</v>
+      </c>
+      <c r="E71">
+        <v>0.03937372518595438</v>
+      </c>
+      <c r="F71">
+        <v>-0.03944846651702548</v>
+      </c>
+      <c r="G71">
+        <v>0.0001493470769265759</v>
+      </c>
+      <c r="H71">
+        <v>0.01353729496420477</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1367829562973896</v>
+        <v>0.1415228635266413</v>
       </c>
       <c r="C72">
-        <v>-0.0638059582606904</v>
+        <v>0.03035707364375392</v>
       </c>
       <c r="D72">
-        <v>-0.01755545580305248</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01081509312333335</v>
+      </c>
+      <c r="E72">
+        <v>-0.04013978299402862</v>
+      </c>
+      <c r="F72">
+        <v>0.1657879017696108</v>
+      </c>
+      <c r="G72">
+        <v>-0.1107513357677462</v>
+      </c>
+      <c r="H72">
+        <v>-0.005866414987017511</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2756128140861904</v>
+        <v>0.2795633849992961</v>
       </c>
       <c r="C73">
-        <v>-0.09539682720557209</v>
+        <v>-0.01342411659721528</v>
       </c>
       <c r="D73">
-        <v>0.04349976698343899</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09595582470942685</v>
+      </c>
+      <c r="E73">
+        <v>-0.273138615610407</v>
+      </c>
+      <c r="F73">
+        <v>-0.06178733244963051</v>
+      </c>
+      <c r="G73">
+        <v>0.254261976184303</v>
+      </c>
+      <c r="H73">
+        <v>-0.3889688889620496</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07638632495335677</v>
+        <v>0.08886769722980814</v>
       </c>
       <c r="C74">
-        <v>-0.07546128660442376</v>
+        <v>0.03910323677753597</v>
       </c>
       <c r="D74">
-        <v>0.002963509106301621</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.05553452687366139</v>
+      </c>
+      <c r="E74">
+        <v>-0.007704867773545508</v>
+      </c>
+      <c r="F74">
+        <v>-0.001059822587710987</v>
+      </c>
+      <c r="G74">
+        <v>0.03836150758980454</v>
+      </c>
+      <c r="H74">
+        <v>0.1294574782292407</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1017377377086636</v>
+        <v>0.1028152888090269</v>
       </c>
       <c r="C75">
-        <v>-0.05667428102320973</v>
+        <v>0.01439751175197326</v>
       </c>
       <c r="D75">
-        <v>-0.001058256007696585</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03217891545282518</v>
+      </c>
+      <c r="E75">
+        <v>0.0001731434729903037</v>
+      </c>
+      <c r="F75">
+        <v>0.001592383737675938</v>
+      </c>
+      <c r="G75">
+        <v>0.0107331116250772</v>
+      </c>
+      <c r="H75">
+        <v>0.1053927872953916</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1252988997889251</v>
+        <v>0.1368901800305497</v>
       </c>
       <c r="C76">
-        <v>-0.07587610361041584</v>
+        <v>0.028198523901766</v>
       </c>
       <c r="D76">
-        <v>0.01849144900692347</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06647783716409338</v>
+      </c>
+      <c r="E76">
+        <v>0.01058613290444124</v>
+      </c>
+      <c r="F76">
+        <v>-0.03186088182685199</v>
+      </c>
+      <c r="G76">
+        <v>0.000453767145383401</v>
+      </c>
+      <c r="H76">
+        <v>0.2458217866748711</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1184662977344418</v>
+        <v>0.09851644264845558</v>
       </c>
       <c r="C77">
-        <v>-0.03504722207533965</v>
+        <v>-0.02248972763290986</v>
       </c>
       <c r="D77">
-        <v>0.07679211042484824</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04060203606178363</v>
+      </c>
+      <c r="E77">
+        <v>0.05881608800010457</v>
+      </c>
+      <c r="F77">
+        <v>-0.06343749019182388</v>
+      </c>
+      <c r="G77">
+        <v>-0.8011933279612252</v>
+      </c>
+      <c r="H77">
+        <v>-0.2680586927080041</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.106370366628626</v>
+        <v>0.1501765999830117</v>
       </c>
       <c r="C78">
-        <v>-0.05237060144670425</v>
+        <v>0.02192850653226787</v>
       </c>
       <c r="D78">
-        <v>0.08050067470704114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08849486563478218</v>
+      </c>
+      <c r="E78">
+        <v>0.0482598673869982</v>
+      </c>
+      <c r="F78">
+        <v>-0.05585838244189549</v>
+      </c>
+      <c r="G78">
+        <v>-0.03377397978747432</v>
+      </c>
+      <c r="H78">
+        <v>-0.1034184689568227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1363290170589485</v>
+        <v>0.1426549237847869</v>
       </c>
       <c r="C79">
-        <v>-0.07261990941106093</v>
+        <v>0.02081766420318044</v>
       </c>
       <c r="D79">
-        <v>0.02417139061194481</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05479161985683943</v>
+      </c>
+      <c r="E79">
+        <v>-0.01275898297357735</v>
+      </c>
+      <c r="F79">
+        <v>-0.01955735020188292</v>
+      </c>
+      <c r="G79">
+        <v>-0.01704838869816582</v>
+      </c>
+      <c r="H79">
+        <v>0.1694491124428227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03775262421687882</v>
+        <v>0.03930972598657604</v>
       </c>
       <c r="C80">
-        <v>-0.02147901165641342</v>
+        <v>0.006569770676160639</v>
       </c>
       <c r="D80">
-        <v>0.02695470790710783</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01864206694967116</v>
+      </c>
+      <c r="E80">
+        <v>-0.04434332561288696</v>
+      </c>
+      <c r="F80">
+        <v>-0.0071282513946857</v>
+      </c>
+      <c r="G80">
+        <v>0.01233157368742007</v>
+      </c>
+      <c r="H80">
+        <v>0.02799757834888126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1243195294175227</v>
+        <v>0.1278442952081523</v>
       </c>
       <c r="C81">
-        <v>-0.07773761158927157</v>
+        <v>0.03188625532284803</v>
       </c>
       <c r="D81">
-        <v>0.009857742532072934</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.04108855362819804</v>
+      </c>
+      <c r="E81">
+        <v>-0.0003309847350577805</v>
+      </c>
+      <c r="F81">
+        <v>-0.02481767486720199</v>
+      </c>
+      <c r="G81">
+        <v>0.007899613771811644</v>
+      </c>
+      <c r="H81">
+        <v>0.1551694570914038</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1260752471783417</v>
+        <v>0.1299175952802713</v>
       </c>
       <c r="C82">
-        <v>-0.07033642950762278</v>
+        <v>0.02879979243909417</v>
       </c>
       <c r="D82">
-        <v>0.00888402752155475</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.04331794752817095</v>
+      </c>
+      <c r="E82">
+        <v>-0.0192808107957134</v>
+      </c>
+      <c r="F82">
+        <v>-0.0390176940258536</v>
+      </c>
+      <c r="G82">
+        <v>0.01177998650922538</v>
+      </c>
+      <c r="H82">
+        <v>0.2371726542835281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0638242909265829</v>
+        <v>0.0796237918593098</v>
       </c>
       <c r="C83">
-        <v>0.01880093429258506</v>
+        <v>-0.03363627191896994</v>
       </c>
       <c r="D83">
-        <v>0.02359825765489997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01269670995734846</v>
+      </c>
+      <c r="E83">
+        <v>0.01389097886755398</v>
+      </c>
+      <c r="F83">
+        <v>-0.03177323248590659</v>
+      </c>
+      <c r="G83">
+        <v>0.05013467274137877</v>
+      </c>
+      <c r="H83">
+        <v>-0.02142301063134703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.03051660202420016</v>
+        <v>0.03358833696638782</v>
       </c>
       <c r="C84">
-        <v>-0.04175318944629849</v>
+        <v>0.01111212671132036</v>
       </c>
       <c r="D84">
-        <v>0.0311468720506919</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.04876991765917425</v>
+      </c>
+      <c r="E84">
+        <v>0.02259996977880657</v>
+      </c>
+      <c r="F84">
+        <v>0.04136631416549449</v>
+      </c>
+      <c r="G84">
+        <v>0.02496539893423636</v>
+      </c>
+      <c r="H84">
+        <v>0.02592031501389409</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1142778547168993</v>
+        <v>0.1215713898983843</v>
       </c>
       <c r="C85">
-        <v>-0.04852990995229266</v>
+        <v>0.007958603724098304</v>
       </c>
       <c r="D85">
-        <v>0.04200541852752609</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.04563416172201171</v>
+      </c>
+      <c r="E85">
+        <v>0.009172084615908479</v>
+      </c>
+      <c r="F85">
+        <v>-0.04126886274177444</v>
+      </c>
+      <c r="G85">
+        <v>0.006911559695054599</v>
+      </c>
+      <c r="H85">
+        <v>0.1441797131607473</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05007275691567011</v>
+        <v>0.05100614630556531</v>
       </c>
       <c r="C86">
-        <v>-0.0299611234061548</v>
+        <v>-0.00249738733301119</v>
       </c>
       <c r="D86">
-        <v>0.07137806195802122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04357564072320198</v>
+      </c>
+      <c r="E86">
+        <v>0.03900589516476895</v>
+      </c>
+      <c r="F86">
+        <v>-0.025762852209018</v>
+      </c>
+      <c r="G86">
+        <v>0.02040172057125269</v>
+      </c>
+      <c r="H86">
+        <v>-0.05611368766533622</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1186202795724915</v>
+        <v>0.1248994665551965</v>
       </c>
       <c r="C87">
-        <v>-0.08348071584190382</v>
+        <v>0.01799192822058663</v>
       </c>
       <c r="D87">
-        <v>0.06109772487405556</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08088206772852097</v>
+      </c>
+      <c r="E87">
+        <v>0.02677565479227704</v>
+      </c>
+      <c r="F87">
+        <v>-0.02648685733002511</v>
+      </c>
+      <c r="G87">
+        <v>-0.1511771107661755</v>
+      </c>
+      <c r="H87">
+        <v>-0.06791270906538367</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05474928657638654</v>
+        <v>0.06331470168145328</v>
       </c>
       <c r="C88">
-        <v>-0.03915217977351093</v>
+        <v>0.01089602927931747</v>
       </c>
       <c r="D88">
-        <v>0.02498648158363159</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04821866829855438</v>
+      </c>
+      <c r="E88">
+        <v>0.0006839743293850335</v>
+      </c>
+      <c r="F88">
+        <v>-0.0218898947299335</v>
+      </c>
+      <c r="G88">
+        <v>-0.009561710675714468</v>
+      </c>
+      <c r="H88">
+        <v>0.04640486903965585</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07026058574103389</v>
+        <v>0.1084979261330755</v>
       </c>
       <c r="C89">
-        <v>-0.05296287236558126</v>
+        <v>0.2096510323483799</v>
       </c>
       <c r="D89">
-        <v>-0.324185536660976</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.30027344392551</v>
+      </c>
+      <c r="E89">
+        <v>0.05209313754094026</v>
+      </c>
+      <c r="F89">
+        <v>-0.07443310095600571</v>
+      </c>
+      <c r="G89">
+        <v>0.02752225639262036</v>
+      </c>
+      <c r="H89">
+        <v>0.02385001377919758</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05570972163012713</v>
+        <v>0.0826146755500011</v>
       </c>
       <c r="C90">
-        <v>-0.03721706377059456</v>
+        <v>0.1620825427291072</v>
       </c>
       <c r="D90">
-        <v>-0.2805012153157042</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2479516765779899</v>
+      </c>
+      <c r="E90">
+        <v>0.05176514487624467</v>
+      </c>
+      <c r="F90">
+        <v>-0.03020808080186497</v>
+      </c>
+      <c r="G90">
+        <v>-0.03475482675357215</v>
+      </c>
+      <c r="H90">
+        <v>-0.01974902250990907</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08955969303200623</v>
+        <v>0.08993542747380309</v>
       </c>
       <c r="C91">
-        <v>-0.05780382388965941</v>
+        <v>0.01677879017432451</v>
       </c>
       <c r="D91">
-        <v>0.004278318404220816</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03910146302787017</v>
+      </c>
+      <c r="E91">
+        <v>0.00353270759049326</v>
+      </c>
+      <c r="F91">
+        <v>-0.005184379313143923</v>
+      </c>
+      <c r="G91">
+        <v>0.02300064105469859</v>
+      </c>
+      <c r="H91">
+        <v>0.08653729541664741</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.05712706372113219</v>
+        <v>0.08234496493729497</v>
       </c>
       <c r="C92">
-        <v>-0.04502988922267899</v>
+        <v>0.1863566380502531</v>
       </c>
       <c r="D92">
-        <v>-0.3327816408029771</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2840526700548663</v>
+      </c>
+      <c r="E92">
+        <v>0.04660025949565225</v>
+      </c>
+      <c r="F92">
+        <v>-0.03627108763277953</v>
+      </c>
+      <c r="G92">
+        <v>-0.004780109800865768</v>
+      </c>
+      <c r="H92">
+        <v>0.02809840723702864</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05081769167252751</v>
+        <v>0.08081822839028548</v>
       </c>
       <c r="C93">
-        <v>-0.04607039754410738</v>
+        <v>0.1816296915014639</v>
       </c>
       <c r="D93">
-        <v>-0.307531974613695</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2595828931587732</v>
+      </c>
+      <c r="E93">
+        <v>0.01676946577565817</v>
+      </c>
+      <c r="F93">
+        <v>-0.02932174977047757</v>
+      </c>
+      <c r="G93">
+        <v>-0.01973515456633947</v>
+      </c>
+      <c r="H93">
+        <v>0.002470848728620434</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1287260772163887</v>
+        <v>0.1266636825285523</v>
       </c>
       <c r="C94">
-        <v>-0.04497920852161576</v>
+        <v>-0.006252793107770183</v>
       </c>
       <c r="D94">
-        <v>0.03911563023406586</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04566326695561285</v>
+      </c>
+      <c r="E94">
+        <v>-0.02180605379290789</v>
+      </c>
+      <c r="F94">
+        <v>-0.01985782304622053</v>
+      </c>
+      <c r="G94">
+        <v>0.04311316371891916</v>
+      </c>
+      <c r="H94">
+        <v>0.09912549636405497</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1182474883105935</v>
+        <v>0.1315461697385144</v>
       </c>
       <c r="C95">
-        <v>-0.03926688146170725</v>
+        <v>-0.007576949278335275</v>
       </c>
       <c r="D95">
-        <v>0.05887982892306322</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06250320161568107</v>
+      </c>
+      <c r="E95">
+        <v>0.01304502272174655</v>
+      </c>
+      <c r="F95">
+        <v>-0.05262993520116455</v>
+      </c>
+      <c r="G95">
+        <v>-0.05028845106833528</v>
+      </c>
+      <c r="H95">
+        <v>-0.1098588906425985</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2231336949908712</v>
+        <v>0.1905255576611932</v>
       </c>
       <c r="C97">
-        <v>-0.06450923075029377</v>
+        <v>0.005927159384512485</v>
       </c>
       <c r="D97">
-        <v>-0.124708661415065</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.05660504051777376</v>
+      </c>
+      <c r="E97">
+        <v>-0.02584445391159264</v>
+      </c>
+      <c r="F97">
+        <v>0.9383369030714854</v>
+      </c>
+      <c r="G97">
+        <v>-0.05174521704311383</v>
+      </c>
+      <c r="H97">
+        <v>-0.0140488567091293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2412068117640225</v>
+        <v>0.2753433176410102</v>
       </c>
       <c r="C98">
-        <v>-0.07255870851235528</v>
+        <v>0.01348988633060816</v>
       </c>
       <c r="D98">
-        <v>0.01040284132834275</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04898359221748931</v>
+      </c>
+      <c r="E98">
+        <v>-0.2207952887018027</v>
+      </c>
+      <c r="F98">
+        <v>-0.03159710386588553</v>
+      </c>
+      <c r="G98">
+        <v>0.2830155837956215</v>
+      </c>
+      <c r="H98">
+        <v>-0.142917782531764</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4530198122643257</v>
+        <v>0.2843962800173186</v>
       </c>
       <c r="C99">
-        <v>0.8740958193302562</v>
+        <v>-0.8296686297764395</v>
       </c>
       <c r="D99">
-        <v>-0.0110854353566537</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.4381650684000973</v>
+      </c>
+      <c r="E99">
+        <v>0.07563633326266214</v>
+      </c>
+      <c r="F99">
+        <v>-0.07368920293274206</v>
+      </c>
+      <c r="G99">
+        <v>-0.00834178040030931</v>
+      </c>
+      <c r="H99">
+        <v>0.06697917429650024</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04337915845553932</v>
+        <v>0.04872445292020861</v>
       </c>
       <c r="C101">
-        <v>-0.04394543255086266</v>
+        <v>0.02877255532157656</v>
       </c>
       <c r="D101">
-        <v>-0.003394853391372072</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02284369038420761</v>
+      </c>
+      <c r="E101">
+        <v>0.05042602940039467</v>
+      </c>
+      <c r="F101">
+        <v>-0.02098523432781535</v>
+      </c>
+      <c r="G101">
+        <v>-0.00381523128925498</v>
+      </c>
+      <c r="H101">
+        <v>0.08829561673551907</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
